--- a/CardaData/DataSource - CargaXMLVariosPC.xlsx
+++ b/CardaData/DataSource - CargaXMLVariosPC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\CardaData\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\CardaData\CardaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375A93F6-5585-45F9-B58D-5ED12CE9E986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B384824A-324C-40AB-B800-C3762A5D7124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>https://suragwqa2.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>NombreArchivoXML</t>
-  </si>
-  <si>
     <t>sura_ca7_vehicle_assistance.xml</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>NombreArchivo</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -794,15 +794,15 @@
         <v>5</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -811,15 +811,15 @@
         <v>5</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -828,15 +828,15 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -845,15 +845,15 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>4</v>
@@ -862,15 +862,15 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
@@ -879,15 +879,15 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
@@ -896,15 +896,15 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>4</v>
@@ -913,15 +913,15 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>4</v>
@@ -930,15 +930,15 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -947,15 +947,15 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>4</v>
@@ -964,15 +964,15 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>4</v>
@@ -981,15 +981,15 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>4</v>
@@ -998,15 +998,15 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>4</v>
@@ -1015,15 +1015,15 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>4</v>
@@ -1032,15 +1032,15 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
@@ -1049,32 +1049,32 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>4</v>
@@ -1083,15 +1083,15 @@
         <v>5</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>4</v>
@@ -1100,15 +1100,15 @@
         <v>5</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>4</v>
@@ -1117,15 +1117,15 @@
         <v>5</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>4</v>
@@ -1134,15 +1134,15 @@
         <v>5</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>4</v>
@@ -1151,15 +1151,15 @@
         <v>5</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>4</v>
@@ -1168,15 +1168,15 @@
         <v>5</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>4</v>
@@ -1185,15 +1185,15 @@
         <v>5</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>4</v>
@@ -1202,15 +1202,15 @@
         <v>5</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>4</v>
@@ -1219,15 +1219,15 @@
         <v>5</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>4</v>
@@ -1236,15 +1236,15 @@
         <v>5</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>4</v>
@@ -1253,15 +1253,15 @@
         <v>5</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>4</v>
@@ -1270,15 +1270,15 @@
         <v>5</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>4</v>
@@ -1287,15 +1287,15 @@
         <v>5</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>4</v>
@@ -1304,15 +1304,15 @@
         <v>5</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>4</v>
@@ -1321,15 +1321,15 @@
         <v>5</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>4</v>
@@ -1338,15 +1338,15 @@
         <v>5</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>4</v>
@@ -1355,15 +1355,15 @@
         <v>5</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>4</v>
@@ -1372,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
